--- a/REGULAR/FERMA, MA. VICTORIA.xlsx
+++ b/REGULAR/FERMA, MA. VICTORIA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CFA2E1-EFD1-4CD1-8B39-64E53233044B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F0F16D-E993-4807-9417-8ACF8CE74A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,20 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>PERIOD</t>
   </si>
@@ -300,6 +292,12 @@
   </si>
   <si>
     <t>12/16,21,23,28,29</t>
+  </si>
+  <si>
+    <t>2/22,23/2023</t>
+  </si>
+  <si>
+    <t>2/24,27,28</t>
   </si>
 </sst>
 </file>
@@ -997,7 +995,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K157" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K158" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
@@ -1326,12 +1324,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K157"/>
+  <dimension ref="A2:K158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4308" topLeftCell="A101" activePane="bottomLeft"/>
+      <pane ySplit="4308" topLeftCell="A104" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K110" sqref="K110"/>
+      <selection pane="bottomLeft" activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1490,7 +1488,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>56.933999999999997</v>
+        <v>56.433999999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1500,7 +1498,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>44.5</v>
+        <v>47</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3687,15 +3685,19 @@
       <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="40"/>
+      <c r="A111" s="40">
+        <v>44927</v>
+      </c>
       <c r="B111" s="20"/>
-      <c r="C111" s="13"/>
+      <c r="C111" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D111" s="39"/>
       <c r="E111" s="9"/>
       <c r="F111" s="20"/>
-      <c r="G111" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G111" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H111" s="39"/>
       <c r="I111" s="9"/>
@@ -3703,26 +3705,38 @@
       <c r="K111" s="20"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="40"/>
-      <c r="B112" s="20"/>
-      <c r="C112" s="13"/>
+      <c r="A112" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B112" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C112" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D112" s="39"/>
       <c r="E112" s="9"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G112" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H112" s="39"/>
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
-      <c r="K112" s="20"/>
+      <c r="K112" s="20" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
-      <c r="B113" s="20"/>
+      <c r="B113" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C113" s="13"/>
-      <c r="D113" s="39"/>
+      <c r="D113" s="39">
+        <v>3</v>
+      </c>
       <c r="E113" s="9"/>
       <c r="F113" s="20"/>
       <c r="G113" s="13" t="str">
@@ -3732,10 +3746,14 @@
       <c r="H113" s="39"/>
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
-      <c r="K113" s="20"/>
+      <c r="K113" s="20" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="40"/>
+      <c r="A114" s="40">
+        <v>44986</v>
+      </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
@@ -3751,7 +3769,9 @@
       <c r="K114" s="20"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="40"/>
+      <c r="A115" s="40">
+        <v>45017</v>
+      </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
@@ -3767,7 +3787,9 @@
       <c r="K115" s="20"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="40"/>
+      <c r="A116" s="40">
+        <v>45047</v>
+      </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
@@ -3783,7 +3805,9 @@
       <c r="K116" s="20"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="40"/>
+      <c r="A117" s="40">
+        <v>45078</v>
+      </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
@@ -3799,7 +3823,9 @@
       <c r="K117" s="20"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="40"/>
+      <c r="A118" s="40">
+        <v>45108</v>
+      </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
       <c r="D118" s="39"/>
@@ -3815,7 +3841,9 @@
       <c r="K118" s="20"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="40"/>
+      <c r="A119" s="40">
+        <v>45139</v>
+      </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
@@ -3831,7 +3859,9 @@
       <c r="K119" s="20"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="40"/>
+      <c r="A120" s="40">
+        <v>45170</v>
+      </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
@@ -3847,7 +3877,9 @@
       <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="40"/>
+      <c r="A121" s="40">
+        <v>45200</v>
+      </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -3863,7 +3895,9 @@
       <c r="K121" s="20"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="40"/>
+      <c r="A122" s="40">
+        <v>45231</v>
+      </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
@@ -3879,7 +3913,9 @@
       <c r="K122" s="20"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="40"/>
+      <c r="A123" s="40">
+        <v>45261</v>
+      </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
@@ -3895,7 +3931,9 @@
       <c r="K123" s="20"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="40"/>
+      <c r="A124" s="40">
+        <v>45292</v>
+      </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
       <c r="D124" s="39"/>
@@ -3911,7 +3949,9 @@
       <c r="K124" s="20"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="40"/>
+      <c r="A125" s="40">
+        <v>45323</v>
+      </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
       <c r="D125" s="39"/>
@@ -3927,7 +3967,9 @@
       <c r="K125" s="20"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="40"/>
+      <c r="A126" s="40">
+        <v>45352</v>
+      </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
@@ -3943,7 +3985,9 @@
       <c r="K126" s="20"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="40"/>
+      <c r="A127" s="40">
+        <v>45383</v>
+      </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
       <c r="D127" s="39"/>
@@ -3959,7 +4003,9 @@
       <c r="K127" s="20"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="40"/>
+      <c r="A128" s="40">
+        <v>45413</v>
+      </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
       <c r="D128" s="39"/>
@@ -3975,7 +4021,9 @@
       <c r="K128" s="20"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="40"/>
+      <c r="A129" s="40">
+        <v>45444</v>
+      </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
       <c r="D129" s="39"/>
@@ -3991,7 +4039,9 @@
       <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="40"/>
+      <c r="A130" s="40">
+        <v>45474</v>
+      </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
       <c r="D130" s="39"/>
@@ -4007,7 +4057,9 @@
       <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="40"/>
+      <c r="A131" s="40">
+        <v>45505</v>
+      </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
       <c r="D131" s="39"/>
@@ -4023,7 +4075,9 @@
       <c r="K131" s="20"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="40"/>
+      <c r="A132" s="40">
+        <v>45536</v>
+      </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
       <c r="D132" s="39"/>
@@ -4039,7 +4093,9 @@
       <c r="K132" s="20"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="40"/>
+      <c r="A133" s="40">
+        <v>45566</v>
+      </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
       <c r="D133" s="39"/>
@@ -4055,7 +4111,9 @@
       <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="40"/>
+      <c r="A134" s="40">
+        <v>45597</v>
+      </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
       <c r="D134" s="39"/>
@@ -4071,7 +4129,9 @@
       <c r="K134" s="20"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A135" s="40"/>
+      <c r="A135" s="40">
+        <v>45627</v>
+      </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
       <c r="D135" s="39"/>
@@ -4087,7 +4147,9 @@
       <c r="K135" s="20"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A136" s="40"/>
+      <c r="A136" s="40">
+        <v>45658</v>
+      </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
       <c r="D136" s="39"/>
@@ -4103,7 +4165,9 @@
       <c r="K136" s="20"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137" s="40"/>
+      <c r="A137" s="40">
+        <v>45689</v>
+      </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
       <c r="D137" s="39"/>
@@ -4119,7 +4183,9 @@
       <c r="K137" s="20"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A138" s="40"/>
+      <c r="A138" s="40">
+        <v>45717</v>
+      </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
       <c r="D138" s="39"/>
@@ -4135,7 +4201,9 @@
       <c r="K138" s="20"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139" s="40"/>
+      <c r="A139" s="40">
+        <v>45748</v>
+      </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
       <c r="D139" s="39"/>
@@ -4151,7 +4219,9 @@
       <c r="K139" s="20"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A140" s="40"/>
+      <c r="A140" s="40">
+        <v>45778</v>
+      </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
       <c r="D140" s="39"/>
@@ -4167,7 +4237,9 @@
       <c r="K140" s="20"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A141" s="40"/>
+      <c r="A141" s="40">
+        <v>45809</v>
+      </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
       <c r="D141" s="39"/>
@@ -4183,7 +4255,9 @@
       <c r="K141" s="20"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A142" s="40"/>
+      <c r="A142" s="40">
+        <v>45839</v>
+      </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
       <c r="D142" s="39"/>
@@ -4199,7 +4273,9 @@
       <c r="K142" s="20"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A143" s="40"/>
+      <c r="A143" s="40">
+        <v>45870</v>
+      </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
       <c r="D143" s="39"/>
@@ -4215,7 +4291,9 @@
       <c r="K143" s="20"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A144" s="40"/>
+      <c r="A144" s="40">
+        <v>45901</v>
+      </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
       <c r="D144" s="39"/>
@@ -4231,7 +4309,9 @@
       <c r="K144" s="20"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A145" s="40"/>
+      <c r="A145" s="40">
+        <v>45931</v>
+      </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
       <c r="D145" s="39"/>
@@ -4247,7 +4327,9 @@
       <c r="K145" s="20"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A146" s="40"/>
+      <c r="A146" s="40">
+        <v>45962</v>
+      </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
       <c r="D146" s="39"/>
@@ -4263,7 +4345,9 @@
       <c r="K146" s="20"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A147" s="40"/>
+      <c r="A147" s="40">
+        <v>45992</v>
+      </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
       <c r="D147" s="39"/>
@@ -4279,7 +4363,9 @@
       <c r="K147" s="20"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A148" s="40"/>
+      <c r="A148" s="40">
+        <v>46023</v>
+      </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
       <c r="D148" s="39"/>
@@ -4295,7 +4381,9 @@
       <c r="K148" s="20"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A149" s="40"/>
+      <c r="A149" s="40">
+        <v>46054</v>
+      </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
       <c r="D149" s="39"/>
@@ -4311,7 +4399,9 @@
       <c r="K149" s="20"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A150" s="40"/>
+      <c r="A150" s="40">
+        <v>46082</v>
+      </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
       <c r="D150" s="39"/>
@@ -4327,7 +4417,9 @@
       <c r="K150" s="20"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A151" s="40"/>
+      <c r="A151" s="40">
+        <v>46113</v>
+      </c>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
       <c r="D151" s="39"/>
@@ -4343,7 +4435,9 @@
       <c r="K151" s="20"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A152" s="40"/>
+      <c r="A152" s="40">
+        <v>46143</v>
+      </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
       <c r="D152" s="39"/>
@@ -4359,7 +4453,9 @@
       <c r="K152" s="20"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A153" s="40"/>
+      <c r="A153" s="40">
+        <v>46174</v>
+      </c>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
       <c r="D153" s="39"/>
@@ -4375,7 +4471,9 @@
       <c r="K153" s="20"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A154" s="40"/>
+      <c r="A154" s="40">
+        <v>46204</v>
+      </c>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
       <c r="D154" s="39"/>
@@ -4423,20 +4521,36 @@
       <c r="K156" s="20"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A157" s="41"/>
-      <c r="B157" s="15"/>
-      <c r="C157" s="42"/>
-      <c r="D157" s="43"/>
+      <c r="A157" s="40"/>
+      <c r="B157" s="20"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="39"/>
       <c r="E157" s="9"/>
-      <c r="F157" s="15"/>
-      <c r="G157" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H157" s="43"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H157" s="39"/>
       <c r="I157" s="9"/>
-      <c r="J157" s="12"/>
-      <c r="K157" s="15"/>
+      <c r="J157" s="11"/>
+      <c r="K157" s="20"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" s="41"/>
+      <c r="B158" s="15"/>
+      <c r="C158" s="42"/>
+      <c r="D158" s="43"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H158" s="43"/>
+      <c r="I158" s="9"/>
+      <c r="J158" s="12"/>
+      <c r="K158" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
